--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3066855.726071575</v>
+        <v>3171035.360522646</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -674,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292584</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>97.32228826427402</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.9812949757249</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247737</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734129911</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -832,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>24.01006515217614</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983806</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004727</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>190.4747961193286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -911,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>152.5938874041474</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -956,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>60.91797442113895</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>82.13843441670069</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1104,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1111,16 +1113,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>69.24533356290273</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>64.77203581859861</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>197.2040098788576</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1297,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1306,7 +1308,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1345,7 +1347,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>26.99989140651299</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,10 +1356,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>121.3780983812544</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1531,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>73.22341869628487</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1768,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>18.7084378797726</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>4.019807611472472</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1841,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.7025149569552</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="18">
@@ -2005,19 +2007,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>123.9815576456783</v>
       </c>
       <c r="H19" t="n">
-        <v>137.3021949834108</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2129,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2239,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>9.14614278817986</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,13 +2481,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>88.98787776789686</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2618,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784681</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2728,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>74.56474874233425</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2770,13 +2772,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>57.65182679923975</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2807,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>133.605923711194</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2962,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>35.88641949135634</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>39.9900098519203</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>26.05480806223633</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3266,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3275,13 +3277,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3427,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>71.05846343488126</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3661,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>28.75188085812005</v>
+        <v>106.7037805093893</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3721,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3904,13 +3906,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>220.6346102953135</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3961,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>100.2041656279971</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4147,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4198,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>193.7763380130617</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1320.35562273557</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1320.35562273557</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477181</v>
+        <v>821.1650657389511</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927146</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810549</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939505</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296683</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052371</v>
+        <v>3266.588755052365</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609173</v>
+        <v>3325.605821609168</v>
       </c>
       <c r="S2" t="n">
-        <v>3227.300479928088</v>
+        <v>3215.315153136263</v>
       </c>
       <c r="T2" t="n">
-        <v>3021.322732312311</v>
+        <v>3215.315153136263</v>
       </c>
       <c r="U2" t="n">
-        <v>2767.792255586147</v>
+        <v>3215.315153136263</v>
       </c>
       <c r="V2" t="n">
-        <v>2436.729368242576</v>
+        <v>3215.315153136263</v>
       </c>
       <c r="W2" t="n">
-        <v>2083.960712972462</v>
+        <v>3105.233036999167</v>
       </c>
       <c r="X2" t="n">
-        <v>1710.494954711382</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="Y2" t="n">
-        <v>1320.35562273557</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811085</v>
+        <v>1702.096133556935</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999815</v>
+        <v>1527.643104275809</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387302</v>
+        <v>1378.708694614557</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332748</v>
+        <v>1219.471239609102</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601598</v>
+        <v>1072.936681635986</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686049</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064724</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218346</v>
+        <v>827.0643955080108</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228009</v>
+        <v>920.741664998628</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031483</v>
+        <v>1159.005863978975</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215814</v>
+        <v>1525.704024291641</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1972.980349513957</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992585</v>
+        <v>2446.503393068411</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410641</v>
+        <v>2857.464672486466</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886744</v>
+        <v>3167.964263962568</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533344</v>
+        <v>3325.605821609168</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201683</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695163</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373019</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507434</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275692</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.92326954749</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.071769341957</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577004</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>795.2798542473295</v>
+        <v>2270.63468106149</v>
       </c>
       <c r="C4" t="n">
-        <v>626.3436713194226</v>
+        <v>2101.698498133583</v>
       </c>
       <c r="D4" t="n">
-        <v>626.3436713194226</v>
+        <v>1951.581858721247</v>
       </c>
       <c r="E4" t="n">
-        <v>478.4305777370295</v>
+        <v>1803.668765138854</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>1656.778817640944</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>1489.075981015663</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>1464.823389952859</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218346</v>
+        <v>1464.823389952859</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791191</v>
+        <v>1509.946022399794</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279956</v>
+        <v>1713.933205348671</v>
       </c>
       <c r="L4" t="n">
-        <v>632.181730276492</v>
+        <v>2030.493003797167</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760412</v>
+        <v>2374.650049396716</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>2716.05842610258</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022994</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935979</v>
+        <v>3247.995525456653</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088494</v>
+        <v>3325.605821609168</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846022</v>
+        <v>3325.605821609168</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672848</v>
+        <v>3325.605821609168</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242374</v>
+        <v>3103.839206178694</v>
       </c>
       <c r="U4" t="n">
-        <v>1424.011591242374</v>
+        <v>2814.736339304337</v>
       </c>
       <c r="V4" t="n">
-        <v>1169.327103036487</v>
+        <v>2560.051851098451</v>
       </c>
       <c r="W4" t="n">
-        <v>1169.327103036487</v>
+        <v>2270.63468106149</v>
       </c>
       <c r="X4" t="n">
-        <v>1169.327103036487</v>
+        <v>2270.63468106149</v>
       </c>
       <c r="Y4" t="n">
-        <v>976.9283190775692</v>
+        <v>2270.63468106149</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3061.179913334097</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>2807.649436607934</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2807.649436607934</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>2807.649436607934</v>
+        <v>2694.273621298224</v>
       </c>
       <c r="X5" t="n">
-        <v>2434.183678346854</v>
+        <v>2320.807863037144</v>
       </c>
       <c r="Y5" t="n">
-        <v>2434.183678346854</v>
+        <v>2320.807863037144</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4643,7 @@
         <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.189385922801</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>844.171363847817</v>
+        <v>855.5289736739898</v>
       </c>
       <c r="C7" t="n">
-        <v>675.2351809199101</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396067</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4750,25 +4752,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V7" t="n">
-        <v>1064.963942991347</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="W7" t="n">
-        <v>1064.963942991347</v>
+        <v>1037.177438504229</v>
       </c>
       <c r="X7" t="n">
-        <v>1064.963942991347</v>
+        <v>1037.177438504229</v>
       </c>
       <c r="Y7" t="n">
-        <v>844.171363847817</v>
+        <v>1037.177438504229</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1689.318139675982</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C8" t="n">
-        <v>1320.35562273557</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4814,40 +4816,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3149.8888543296</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>3149.8888543296</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V8" t="n">
-        <v>2818.825966986029</v>
+        <v>3126.409852034566</v>
       </c>
       <c r="W8" t="n">
-        <v>2466.057311715915</v>
+        <v>3126.409852034566</v>
       </c>
       <c r="X8" t="n">
-        <v>2466.057311715915</v>
+        <v>2752.944093773487</v>
       </c>
       <c r="Y8" t="n">
-        <v>2075.917979740103</v>
+        <v>2362.804761797675</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>626.3436713194226</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="C10" t="n">
-        <v>626.3436713194226</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="D10" t="n">
-        <v>626.3436713194226</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1513.842048484845</v>
+        <v>1396.738973660037</v>
       </c>
       <c r="V10" t="n">
-        <v>1259.157560278958</v>
+        <v>1142.05448545415</v>
       </c>
       <c r="W10" t="n">
-        <v>969.7403902419976</v>
+        <v>852.637315417189</v>
       </c>
       <c r="X10" t="n">
-        <v>847.1362504629527</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="Y10" t="n">
-        <v>626.3436713194226</v>
+        <v>624.6477645191717</v>
       </c>
     </row>
     <row r="11">
@@ -5021,28 +5023,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5054,7 +5056,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5127,13 +5129,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1702.079034721979</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2253.988764961266</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
         <v>2516.421633107662</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>1030.918378293891</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>861.9821953659841</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>711.8655559536484</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>563.9524623712553</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>417.0625148733449</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>249.8664155882248</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5230,19 +5232,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1212.566843124131</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,10 +5290,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
@@ -5300,7 +5302,7 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5312,16 +5314,16 @@
         <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998286</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E16" t="n">
-        <v>175.9033664000583</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000583</v>
+        <v>265.073174061852</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>97.87707477673194</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>97.87707477673194</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="17">
@@ -5495,55 +5497,55 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192542</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961525</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1337.934786622704</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1965.532750177311</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D19" t="n">
-        <v>546.5917956728314</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E19" t="n">
-        <v>546.5917956728314</v>
+        <v>365.9405071576786</v>
       </c>
       <c r="F19" t="n">
-        <v>399.701848174921</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="G19" t="n">
-        <v>232.5057488898009</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,22 +5764,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>244.7670222746423</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>103.0551911168404</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="23">
@@ -5981,34 +5983,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
         <v>2319.799627685893</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="D25" t="n">
-        <v>407.9027098310023</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>432.9862109052762</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="26">
@@ -6200,61 +6202,61 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466572</v>
@@ -6266,10 +6268,10 @@
         <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C27" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D27" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F27" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>2490.32382148308</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>3087.702309109632</v>
       </c>
       <c r="N27" t="n">
-        <v>1963.765362972544</v>
+        <v>3715.300272664238</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>4267.210002903525</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R27" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S27" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T27" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U27" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V27" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W27" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X27" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y27" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>950.1865537761979</v>
+        <v>866.4638174991042</v>
       </c>
       <c r="C28" t="n">
-        <v>781.250370848291</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D28" t="n">
-        <v>631.1337314359553</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E28" t="n">
-        <v>483.2206378535622</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F28" t="n">
-        <v>336.3306903556518</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>169.1345910705317</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>169.1345910705317</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V28" t="n">
-        <v>1688.385853854706</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W28" t="n">
-        <v>1398.968683817745</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X28" t="n">
-        <v>1170.979132919728</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y28" t="n">
-        <v>950.1865537761979</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="29">
@@ -6443,34 +6445,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
@@ -6537,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1965.532750177311</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>916.3099000622261</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C31" t="n">
-        <v>747.3737171343192</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D31" t="n">
-        <v>612.4182386381636</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557705</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2410.714175003133</v>
       </c>
       <c r="T31" t="n">
-        <v>2379.917379832663</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="U31" t="n">
-        <v>2090.842153176861</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V31" t="n">
-        <v>1836.157664970974</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W31" t="n">
-        <v>1546.740494934013</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X31" t="n">
-        <v>1318.750944035996</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y31" t="n">
-        <v>1097.958364892466</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6731,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>802.9288273958734</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C34" t="n">
-        <v>762.5348780504994</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D34" t="n">
-        <v>612.4182386381636</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578602</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510508</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1722.776592304621</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.359422267661</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.369871369643</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y34" t="n">
-        <v>984.5772922261132</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,64 +6925,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>251.562654109227</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>746.8882603249857</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M36" t="n">
-        <v>1344.266747951538</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1022.530292372932</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>853.5941094450255</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>703.4774700326898</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>2197.062545487567</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1942.37805728168</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1652.96088724472</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1424.971336346702</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1204.178757203172</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7151,31 +7153,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,37 +7186,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>870.3164745246301</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1272.7575184984</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>1051.96493935487</v>
       </c>
     </row>
     <row r="41">
@@ -7400,19 +7402,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,25 +7423,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M42" t="n">
-        <v>840.8417932021785</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N42" t="n">
-        <v>1468.439756756785</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>2020.349486996072</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.0655846733346</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>411.1294017454277</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>261.0127623330919</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1754.597837787969</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1499.913349582082</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1210.496179545122</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>982.5066286471044</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>761.7140495035743</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803937</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M45" t="n">
-        <v>842.6091804069456</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>948.5505208511905</v>
       </c>
     </row>
   </sheetData>
@@ -23419,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>67.07129414993902</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>127.7255247667966</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>77.24602870709305</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23893,22 +23895,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>41.54258064659051</v>
       </c>
       <c r="H19" t="n">
-        <v>2.992517862813116</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24127,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>72.11969353038566</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24367,13 +24369,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>43.72409101823415</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>56.43317025503438</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>6.701087576231288</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>168.0578285897974</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>15.00954930701832</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>145.1398665102882</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>127.2568112467075</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>139.4693302300325</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>75.37549921168791</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>63.36835372228707</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25549,19 +25551,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>138.4949402405078</v>
+        <v>60.5430405892385</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25609,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25792,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>65.54986409393067</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>125.5054897610401</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26020,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26086,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>24.80831533903313</v>
       </c>
     </row>
   </sheetData>
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>716622.322133965</v>
+        <v>716622.3221339649</v>
       </c>
     </row>
     <row r="14">
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>718411.5486312479</v>
+      </c>
+      <c r="C2" t="n">
         <v>718411.5486312478</v>
       </c>
-      <c r="C2" t="n">
-        <v>718411.5486312477</v>
-      </c>
       <c r="D2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="E2" t="n">
+        <v>706253.2747287551</v>
+      </c>
+      <c r="F2" t="n">
+        <v>706253.274728755</v>
+      </c>
+      <c r="G2" t="n">
+        <v>706253.2747287559</v>
+      </c>
+      <c r="H2" t="n">
         <v>706253.2747287554</v>
       </c>
-      <c r="F2" t="n">
-        <v>706253.2747287558</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>706253.2747287551</v>
+      </c>
+      <c r="J2" t="n">
+        <v>706253.2747287551</v>
+      </c>
+      <c r="K2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="L2" t="n">
         <v>706253.2747287557</v>
       </c>
-      <c r="H2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="I2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="O2" t="n">
         <v>706253.2747287555</v>
-      </c>
-      <c r="L2" t="n">
-        <v>706253.2747287549</v>
-      </c>
-      <c r="M2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="N2" t="n">
-        <v>706253.2747287558</v>
-      </c>
-      <c r="O2" t="n">
-        <v>706253.2747287551</v>
       </c>
       <c r="P2" t="n">
         <v>706253.2747287556</v>
@@ -26363,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727594</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5.977382704713819e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972772</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.462967702536844e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>5.19711258155959e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314463</v>
+        <v>90354.06702314495</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314477</v>
+        <v>90354.06702314483</v>
       </c>
       <c r="D4" t="n">
         <v>90354.06702314482</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179357</v>
       </c>
       <c r="F4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
+        <v>11167.03225179357</v>
+      </c>
+      <c r="H4" t="n">
+        <v>11167.03225179347</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11167.03225179352</v>
+      </c>
+      <c r="J4" t="n">
         <v>11167.03225179351</v>
-      </c>
-      <c r="H4" t="n">
-        <v>11167.03225179351</v>
-      </c>
-      <c r="I4" t="n">
-        <v>11167.03225179351</v>
-      </c>
-      <c r="J4" t="n">
-        <v>11167.03225179356</v>
       </c>
       <c r="K4" t="n">
         <v>11167.03225179351</v>
@@ -26448,13 +26450,13 @@
         <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
-        <v>11167.03225179358</v>
+        <v>11167.03225179347</v>
       </c>
       <c r="N4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="O4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="P4" t="n">
         <v>11167.03225179352</v>
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613934</v>
+        <v>107933.9405613932</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-808621.2046808837</v>
+        <v>-808621.2046808822</v>
       </c>
       <c r="C6" t="n">
-        <v>520123.5410467104</v>
+        <v>520123.5410467092</v>
       </c>
       <c r="D6" t="n">
-        <v>520123.5410467099</v>
+        <v>520123.5410467098</v>
       </c>
       <c r="E6" t="n">
-        <v>268551.2508456996</v>
+        <v>268551.2508456992</v>
       </c>
       <c r="F6" t="n">
+        <v>593963.7126530542</v>
+      </c>
+      <c r="G6" t="n">
         <v>593963.7126530552</v>
       </c>
-      <c r="G6" t="n">
-        <v>593963.7126530551</v>
-      </c>
       <c r="H6" t="n">
-        <v>593963.712653055</v>
+        <v>593963.7126530547</v>
       </c>
       <c r="I6" t="n">
-        <v>593963.7126530547</v>
+        <v>593963.7126530544</v>
       </c>
       <c r="J6" t="n">
-        <v>376432.5102557773</v>
+        <v>376432.5102557772</v>
       </c>
       <c r="K6" t="n">
         <v>593963.7126530549</v>
       </c>
       <c r="L6" t="n">
-        <v>593963.7126530543</v>
+        <v>593963.7126530551</v>
       </c>
       <c r="M6" t="n">
-        <v>508908.6847175432</v>
+        <v>508908.684717543</v>
       </c>
       <c r="N6" t="n">
-        <v>593963.7126530552</v>
+        <v>593963.7126530546</v>
       </c>
       <c r="O6" t="n">
-        <v>593963.7126530545</v>
+        <v>593963.7126530549</v>
       </c>
       <c r="P6" t="n">
-        <v>593963.712653055</v>
+        <v>593963.7126530549</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.401455402292</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="G4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="G4" t="n">
-        <v>1172.708288099648</v>
-      </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26820,16 +26822,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26944,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26969,7 +26971,7 @@
         <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.401455402292</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022917</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.401455402292</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>11.86547352390174</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>240.2596737416881</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27552,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>120.7449497621446</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>28.10985723276622</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>51.32408273547279</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>288.322994296274</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>85.10838668192714</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27792,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,7 +27824,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,16 +27833,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>182.8923097609253</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>139.1459343210215</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>130.5482485912773</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28017,7 +28019,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,7 +28067,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>259.2119467990999</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>104.3315570077827</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28561,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
     </row>
     <row r="18">
@@ -28852,19 +28854,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29998,10 +30000,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-5.820141602602879e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30034,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
     </row>
     <row r="36">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681601</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974801</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953991</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003814</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623197</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574999</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095028</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099063</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746417</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781693</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563571</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806958</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451122</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.350480948934528</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502568</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798533</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752262</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970253</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.610358400293</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987489</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238319</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898505</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430539</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297391</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702026</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098822</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883117</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086003</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802171</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895882</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712221</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553038</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112301</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31847,16 +31849,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P12" t="n">
-        <v>399.0581126127094</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236522</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>366.8427442359099</v>
       </c>
       <c r="O15" t="n">
-        <v>370.9642309107746</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067226</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>324.9782573297443</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>169.9530009943068</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>639.8517673857162</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>403.852496713802</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>399.9031616963275</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>309.9424824173362</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,22 +33265,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>169.9530009943068</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>524.5136961554247</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>360.9226811202611</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>295.3955842839429</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868572</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209194</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>169.2687847673334</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34451,34 +34453,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>246.9596973201444</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>601.0567753070492</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687128</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554008</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923325</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302272</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129119</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882196</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193722</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037198</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222495</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597725</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013295</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525809</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127273</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306631</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701983</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M4" t="n">
-        <v>347.633379393484</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675403</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451106</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789377</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35495,16 +35497,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P12" t="n">
-        <v>265.0837051983791</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683826</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,25 +35731,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="O15" t="n">
-        <v>228.3679864663302</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316704</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>187.1368183553853</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>35.9785935799765</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>508.510055302383</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,22 +36442,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>140.6875824748321</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>272.5107846304687</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>261.3487819164533</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>167.3462379728918</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>35.9785935799765</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>393.1719840720914</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>157.5541453095838</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648388</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>27.13475084531504</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236315785</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38101,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>108.4053175402702</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>469.7150632237159</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3171035.360522646</v>
+        <v>3167022.750508656</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>184.4530101301287</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.9812949757249</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>24.01006515217614</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>13.02719212039628</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>276.3457167073708</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>60.91797442113895</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1056,16 +1056,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>82.13843441670069</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>62.09581973348946</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>197.2040098788576</v>
+        <v>109.6870817625081</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>26.99989140651299</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.6830416206838</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695521</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>73.22341869628487</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,16 +1584,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>130.5513683573777</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>125.8152577453158</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>4.019807611472472</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569552</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2004,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>123.9815576456783</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2134,13 +2134,13 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>9.14614278817986</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,16 +2478,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>88.98787776789686</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>35.41770597126702</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2721,10 +2721,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2775,10 +2775,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X28" t="n">
-        <v>57.65182679923975</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>35.88641949135634</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>26.05480806223633</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3271,19 +3271,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206839</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695535</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3432,16 +3432,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>102.1557845699818</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>106.7037805093893</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3912,7 +3912,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>142.1343012721633</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3957,13 +3957,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>100.2041656279971</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>193.7763380130617</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4315,10 +4315,10 @@
         <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528559</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389511</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218336</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810549</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939505</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296683</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052365</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609168</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136263</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136263</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136263</v>
+        <v>3028.99898128765</v>
       </c>
       <c r="V2" t="n">
-        <v>3215.315153136263</v>
+        <v>2697.936093944079</v>
       </c>
       <c r="W2" t="n">
-        <v>3105.233036999167</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="X2" t="n">
-        <v>2731.767278738087</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556935</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275809</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614557</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609102</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635986</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686049</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064724</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080108</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J3" t="n">
-        <v>920.741664998628</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978975</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291641</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513957</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068411</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486466</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962568</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609168</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201683</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695163</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373019</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507434</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275692</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.92326954749</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341957</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577004</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2270.63468106149</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C4" t="n">
-        <v>2101.698498133583</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D4" t="n">
-        <v>1951.581858721247</v>
+        <v>688.3939608395024</v>
       </c>
       <c r="E4" t="n">
-        <v>1803.668765138854</v>
+        <v>540.4808672571093</v>
       </c>
       <c r="F4" t="n">
-        <v>1656.778817640944</v>
+        <v>393.5909197591989</v>
       </c>
       <c r="G4" t="n">
-        <v>1489.075981015663</v>
+        <v>225.8880831339178</v>
       </c>
       <c r="H4" t="n">
-        <v>1464.823389952859</v>
+        <v>79.67089635177561</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952859</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399794</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348671</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797167</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396716</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.05842610258</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022994</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456653</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609168</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.605821609168</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>3325.605821609168</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>3103.839206178694</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>2814.736339304337</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>2560.051851098451</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W4" t="n">
-        <v>2270.63468106149</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X4" t="n">
-        <v>2270.63468106149</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y4" t="n">
-        <v>2270.63468106149</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1934.208022973022</v>
+        <v>2209.232076102164</v>
       </c>
       <c r="C5" t="n">
-        <v>1934.208022973022</v>
+        <v>1840.269559161753</v>
       </c>
       <c r="D5" t="n">
-        <v>1575.942324366272</v>
+        <v>1482.003860555002</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>1096.215607956758</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>685.2297031671503</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4579,13 +4579,13 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
@@ -4594,25 +4594,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W5" t="n">
-        <v>2694.273621298224</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X5" t="n">
-        <v>2320.807863037144</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y5" t="n">
-        <v>2320.807863037144</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>855.5289736739898</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C7" t="n">
-        <v>772.5608581015648</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>688.3939608395024</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>540.4808672571093</v>
       </c>
       <c r="F7" t="n">
         <v>477.7578170212613</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1326.59460854119</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1326.59460854119</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W7" t="n">
-        <v>1037.177438504229</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X7" t="n">
-        <v>1037.177438504229</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y7" t="n">
-        <v>1037.177438504229</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1976.204921733553</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>3126.409852034566</v>
+        <v>3104.520121052924</v>
       </c>
       <c r="W8" t="n">
-        <v>3126.409852034566</v>
+        <v>2751.75146578281</v>
       </c>
       <c r="X8" t="n">
-        <v>2752.944093773487</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y8" t="n">
-        <v>2362.804761797675</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>624.6477645191717</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>624.6477645191717</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>624.6477645191717</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1396.738973660037</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1142.05448545415</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>852.637315417189</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>624.6477645191717</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>624.6477645191717</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5020,31 +5020,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,37 +5053,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913855</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417938</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>1963.765362972545</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>2515.675093211832</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1030.918378293891</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C13" t="n">
-        <v>861.9821953659841</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D13" t="n">
-        <v>711.8655559536484</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E13" t="n">
-        <v>563.9524623712553</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F13" t="n">
-        <v>417.0625148733449</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>249.8664155882248</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304621</v>
+        <v>1556.515784806851</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.359422267661</v>
+        <v>1267.09861476989</v>
       </c>
       <c r="X13" t="n">
-        <v>1433.359422267661</v>
+        <v>1039.109063871873</v>
       </c>
       <c r="Y13" t="n">
-        <v>1212.566843124131</v>
+        <v>818.3164847283425</v>
       </c>
     </row>
     <row r="14">
@@ -5254,31 +5254,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075809</v>
@@ -5287,43 +5287,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245697</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403286</v>
       </c>
       <c r="M15" t="n">
-        <v>1074.481071167373</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876693</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597624</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D16" t="n">
-        <v>411.9631215597624</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E16" t="n">
-        <v>411.9631215597624</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="F16" t="n">
-        <v>265.073174061852</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="G16" t="n">
-        <v>97.87707477673194</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>97.87707477673194</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5445,7 +5445,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5454,7 +5454,7 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
@@ -5463,25 +5463,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614391</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.547769317909</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="17">
@@ -5497,67 +5497,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245705</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
         <v>776.1751066403293</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>365.9405071576786</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>219.0505596597682</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,22 +5764,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>244.7670222746423</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>103.0551911168404</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5980,19 +5980,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,16 +6001,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876693</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C25" t="n">
-        <v>580.8993044876693</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D25" t="n">
-        <v>580.8993044876693</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E25" t="n">
-        <v>432.9862109052762</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2411.187623003223</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.547769317909</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="26">
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>2231.588527385791</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>2490.32382148308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>3087.702309109632</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>3715.300272664238</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>4267.210002903525</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>866.4638174991042</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>697.5276345711973</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711973</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1268.904861472874</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>1048.112282329344</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6554,7 +6554,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2410.714175003133</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2191.112710026075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273905</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>590.9096564684978</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>261.8464821474266</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E34" t="n">
-        <v>261.8464821474266</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F34" t="n">
-        <v>261.8464821474266</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,13 +6925,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
@@ -6940,25 +6940,25 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398594</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>197.0043242297717</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>197.0043242297717</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797189</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7153,16 +7153,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,13 +7171,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,28 +7186,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7250,25 +7250,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>870.3164745246301</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1272.7575184984</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1051.96493935487</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7402,46 +7402,46 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,28 +7484,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282754</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458823</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797189</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2303.393082295247</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2083.791617318188</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,28 +7721,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>948.5505208511905</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>948.5505208511905</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23424,16 +23424,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>67.07129414993902</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23472,16 +23472,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>121.5862749664503</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>39.70888054695307</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>77.24602870709305</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>41.54258064659051</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>72.11969353038566</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24366,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>56.43317025503438</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>145.6085800303776</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24609,10 +24609,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X28" t="n">
-        <v>168.0578285897974</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>145.1398665102882</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>139.4693302300325</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>63.36835372228707</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>60.5430405892385</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>38.89198472948132</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>125.5054897610401</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.80831533903313</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>716622.3221339649</v>
+        <v>716622.322133965</v>
       </c>
     </row>
     <row r="7">
@@ -26316,43 +26316,43 @@
         <v>718411.5486312479</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.2747287551</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="F2" t="n">
-        <v>706253.274728755</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="G2" t="n">
-        <v>706253.2747287559</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="H2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="I2" t="n">
-        <v>706253.2747287551</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="J2" t="n">
-        <v>706253.2747287551</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="K2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="L2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="M2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287558</v>
       </c>
       <c r="N2" t="n">
         <v>706253.2747287552</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="P2" t="n">
         <v>706253.2747287556</v>
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>5.977382704713819e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972772</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
-        <v>1.462967702536844e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>5.19711258155959e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314495</v>
+        <v>90354.06702314486</v>
       </c>
       <c r="C4" t="n">
         <v>90354.06702314483</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314482</v>
+        <v>90354.0670231448</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179357</v>
+        <v>11167.03225179348</v>
       </c>
       <c r="F4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179357</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179347</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
         <v>11167.03225179351</v>
@@ -26456,10 +26456,10 @@
         <v>11167.03225179351</v>
       </c>
       <c r="O4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="P4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613932</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-808621.2046808822</v>
+        <v>-808621.2046808829</v>
       </c>
       <c r="C6" t="n">
-        <v>520123.5410467092</v>
+        <v>520123.54104671</v>
       </c>
       <c r="D6" t="n">
-        <v>520123.5410467098</v>
+        <v>520123.54104671</v>
       </c>
       <c r="E6" t="n">
-        <v>268551.2508456992</v>
+        <v>268203.8715913423</v>
       </c>
       <c r="F6" t="n">
-        <v>593963.7126530542</v>
+        <v>593616.3333986979</v>
       </c>
       <c r="G6" t="n">
-        <v>593963.7126530552</v>
+        <v>593616.3333986982</v>
       </c>
       <c r="H6" t="n">
-        <v>593963.7126530547</v>
+        <v>593616.333398698</v>
       </c>
       <c r="I6" t="n">
-        <v>593963.7126530544</v>
+        <v>593616.3333986979</v>
       </c>
       <c r="J6" t="n">
-        <v>376432.5102557772</v>
+        <v>376085.1310014205</v>
       </c>
       <c r="K6" t="n">
-        <v>593963.7126530549</v>
+        <v>593616.333398698</v>
       </c>
       <c r="L6" t="n">
-        <v>593963.7126530551</v>
+        <v>593616.3333986979</v>
       </c>
       <c r="M6" t="n">
-        <v>508908.684717543</v>
+        <v>508561.3054631864</v>
       </c>
       <c r="N6" t="n">
-        <v>593963.7126530546</v>
+        <v>593616.3333986977</v>
       </c>
       <c r="O6" t="n">
-        <v>593963.7126530549</v>
+        <v>593616.333398698</v>
       </c>
       <c r="P6" t="n">
-        <v>593963.7126530549</v>
+        <v>593616.333398698</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402292</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="G4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="G4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1172.708288099649</v>
-      </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26828,10 +26828,10 @@
         <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26962,16 +26962,16 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402292</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022917</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402292</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27432,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>66.54216182877326</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>240.2596737416881</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>120.7449497621446</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>83.32522828944181</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>134.5760089460827</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>288.322994296274</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,16 +27776,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>85.10838668192714</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>83.32522828944178</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27839,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -27912,10 +27912,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>130.5482485912773</v>
+        <v>218.0651767076268</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>259.2119467990999</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28854,19 +28854,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -30000,10 +30000,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-5.820141602602879e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>171.7382405950807</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32031,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32080,31 +32080,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>173.8200325543346</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>366.8427442359099</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32171,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>324.9782573297443</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>163.4402738502018</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>403.852496713802</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>399.9031616963275</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>524.5136961554247</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>248.7449369209194</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>169.2687847673334</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,22 +34450,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>246.9596973201444</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>219.1556674334648</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>37.76383318075048</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997564</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>235.5010321525766</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35816,7 +35816,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>187.1368183553853</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>29.46586643587157</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,22 +36442,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>272.5107846304687</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>261.3487819164533</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>393.1719840720914</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>440.9755796648388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>110.1905571410452</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>27.13475084531504</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236315785</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,28 +38092,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>108.4053175402702</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3167022.750508656</v>
+        <v>3168783.280811441</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -667,7 +667,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>315.3882082434892</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>184.4530101301287</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>13.02719212039628</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>241.2617668068162</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>105.4771979831548</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>276.3457167073708</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1065,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>62.09581973348946</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>62.09581973348946</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>297.998630822261</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>109.6870817625081</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>71.67037196991727</v>
+        <v>217.0914199928484</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206838</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881312</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>80.08971311158797</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>130.5513683573777</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>125.8152577453158</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428256</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703266</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599955</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>35.41770597126702</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,16 +3192,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206839</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3909,13 +3909,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.1343012721633</v>
+        <v>112.5284434523316</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018862</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1908.990616856005</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1550.724918249255</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4327,10 +4327,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4354,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>3028.99898128765</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.936093944079</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W2" t="n">
-        <v>2345.167438673965</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X2" t="n">
-        <v>2345.167438673965</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y2" t="n">
-        <v>2345.167438673965</v>
+        <v>2277.953133796417</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1007.446783179745</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C4" t="n">
-        <v>838.5106002518381</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D4" t="n">
-        <v>688.3939608395024</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E4" t="n">
-        <v>540.4808672571093</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F4" t="n">
-        <v>393.5909197591989</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>225.8880831339178</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>79.67089635177561</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4524,16 +4524,16 @@
         <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>1927.294548088493</v>
+        <v>1683.595793738173</v>
       </c>
       <c r="W4" t="n">
-        <v>1637.877378051532</v>
+        <v>1394.178623701213</v>
       </c>
       <c r="X4" t="n">
-        <v>1409.887827153515</v>
+        <v>1166.189072803195</v>
       </c>
       <c r="Y4" t="n">
-        <v>1189.095248009985</v>
+        <v>945.3964936596652</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2209.232076102164</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1840.269559161753</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1482.003860555002</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>1096.215607956758</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>685.2297031671503</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4564,13 +4564,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4591,28 +4591,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W5" t="n">
-        <v>2972.837166339056</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X5" t="n">
-        <v>2599.371408077976</v>
+        <v>2841.849394875186</v>
       </c>
       <c r="Y5" t="n">
-        <v>2209.232076102164</v>
+        <v>2451.710062899374</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1007.446783179745</v>
+        <v>944.7237329438971</v>
       </c>
       <c r="C7" t="n">
-        <v>838.5106002518381</v>
+        <v>775.7875500159902</v>
       </c>
       <c r="D7" t="n">
-        <v>688.3939608395024</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="E7" t="n">
-        <v>540.4808672571093</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F7" t="n">
         <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4761,16 +4761,16 @@
         <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1927.294548088493</v>
+        <v>1864.571497852645</v>
       </c>
       <c r="W7" t="n">
-        <v>1637.877378051532</v>
+        <v>1575.154327815684</v>
       </c>
       <c r="X7" t="n">
-        <v>1409.887827153515</v>
+        <v>1347.164776917667</v>
       </c>
       <c r="Y7" t="n">
-        <v>1189.095248009985</v>
+        <v>1126.372197774137</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.546535481797</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>764.341133147311</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363904</v>
+        <v>378.5528805490667</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678287</v>
+        <v>77.54416254678289</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4816,40 +4816,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>3104.520121052924</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W8" t="n">
-        <v>2751.75146578281</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X8" t="n">
-        <v>2378.28570752173</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y8" t="n">
-        <v>1988.146375545919</v>
+        <v>1878.169188758595</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4886,13 +4886,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4901,34 +4901,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>533.4780323548192</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1854.900232967364</v>
+        <v>1708.010285469454</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>935.9190763285891</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>715.126497185059</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,61 +5029,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="L12" t="n">
         <v>738.7889117913855</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417938</v>
+        <v>738.7889117913855</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972545</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O12" t="n">
-        <v>2515.675093211832</v>
+        <v>1918.29660558528</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2341.919755080348</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>636.6680198981028</v>
+        <v>734.6461798836023</v>
       </c>
       <c r="C13" t="n">
-        <v>467.7318369701959</v>
+        <v>565.7099969556954</v>
       </c>
       <c r="D13" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5235,16 +5235,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1556.515784806851</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1267.09861476989</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1039.109063871873</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>818.3164847283425</v>
+        <v>916.294644713842</v>
       </c>
     </row>
     <row r="14">
@@ -5275,13 +5275,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5293,10 +5293,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327652</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>594.8179559048583</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D16" t="n">
-        <v>444.7013164925226</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E16" t="n">
-        <v>444.7013164925226</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F16" t="n">
-        <v>444.7013164925226</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5460,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806535</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5509,37 +5509,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L18" t="n">
         <v>776.1751066403293</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5770,13 +5770,13 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5843,10 +5843,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="N21" t="n">
-        <v>1702.079034721979</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O21" t="n">
-        <v>2253.988764961266</v>
+        <v>2253.988764961267</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5980,19 +5980,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,16 +6001,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>727.9786782557277</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>559.0424953278208</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>408.925855915485</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2411.187623003223</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2191.586158026164</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6220,55 +6220,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6460,25 +6460,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6688,7 +6688,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362687</v>
@@ -6697,25 +6697,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>194.8007783998286</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6931,55 +6931,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,7 +7010,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
         <v>95.58405025273905</v>
@@ -7074,67 +7074,67 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
         <v>974.1018203925706</v>
@@ -7153,28 +7153,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7189,25 +7189,25 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,7 +7247,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
         <v>95.58405025273905</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536381</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2303.393082295247</v>
+        <v>2333.297989183966</v>
       </c>
       <c r="T43" t="n">
-        <v>2083.791617318188</v>
+        <v>2333.297989183966</v>
       </c>
       <c r="U43" t="n">
-        <v>1794.716390662386</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="V43" t="n">
-        <v>1794.716390662386</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W43" t="n">
-        <v>1505.299220625425</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X43" t="n">
-        <v>1277.309669727408</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.517090583878</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>68.52575990662439</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>121.5862749664503</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>39.70888054695307</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.2291039219413</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194223</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>145.6085800303776</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>65.54986409393069</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>38.89198472948132</v>
+        <v>68.49784254931301</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>57.22910392194183</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>716622.322133965</v>
+        <v>716622.3221339649</v>
       </c>
     </row>
     <row r="7">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>716622.3221339649</v>
+        <v>716622.322133965</v>
       </c>
     </row>
     <row r="16">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>718411.5486312481</v>
+      </c>
+      <c r="C2" t="n">
         <v>718411.5486312479</v>
       </c>
-      <c r="C2" t="n">
-        <v>718411.5486312481</v>
-      </c>
       <c r="D2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="E2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="F2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="G2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="H2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="I2" t="n">
         <v>706253.2747287556</v>
-      </c>
-      <c r="G2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="H2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="I2" t="n">
-        <v>706253.2747287555</v>
       </c>
       <c r="J2" t="n">
         <v>706253.2747287556</v>
@@ -26343,19 +26343,19 @@
         <v>706253.2747287556</v>
       </c>
       <c r="L2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="M2" t="n">
-        <v>706253.2747287558</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="N2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="O2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287555</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073557</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314486</v>
+        <v>90354.06702314482</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314483</v>
+        <v>90354.0670231448</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.0670231448</v>
+        <v>90354.06702314477</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179348</v>
+        <v>11167.0322517934</v>
       </c>
       <c r="F4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179347</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179347</v>
       </c>
       <c r="I4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179347</v>
       </c>
       <c r="K4" t="n">
         <v>11167.03225179351</v>
@@ -26450,7 +26450,7 @@
         <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
-        <v>11167.03225179347</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="N4" t="n">
         <v>11167.03225179351</v>
@@ -26478,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-808621.2046808829</v>
+        <v>-808621.2046808826</v>
       </c>
       <c r="C6" t="n">
-        <v>520123.54104671</v>
+        <v>520123.5410467099</v>
       </c>
       <c r="D6" t="n">
-        <v>520123.54104671</v>
+        <v>520123.5410467098</v>
       </c>
       <c r="E6" t="n">
-        <v>268203.8715913423</v>
+        <v>268516.5129202635</v>
       </c>
       <c r="F6" t="n">
-        <v>593616.3333986979</v>
+        <v>593928.9747276192</v>
       </c>
       <c r="G6" t="n">
-        <v>593616.3333986982</v>
+        <v>593928.9747276197</v>
       </c>
       <c r="H6" t="n">
-        <v>593616.333398698</v>
+        <v>593928.9747276194</v>
       </c>
       <c r="I6" t="n">
-        <v>593616.3333986979</v>
+        <v>593928.9747276192</v>
       </c>
       <c r="J6" t="n">
-        <v>376085.1310014205</v>
+        <v>376397.7723303418</v>
       </c>
       <c r="K6" t="n">
-        <v>593616.333398698</v>
+        <v>593928.9747276193</v>
       </c>
       <c r="L6" t="n">
-        <v>593616.3333986979</v>
+        <v>593928.9747276193</v>
       </c>
       <c r="M6" t="n">
-        <v>508561.3054631864</v>
+        <v>508873.9467921074</v>
       </c>
       <c r="N6" t="n">
-        <v>593616.3333986977</v>
+        <v>593928.9747276193</v>
       </c>
       <c r="O6" t="n">
-        <v>593616.333398698</v>
+        <v>593928.9747276193</v>
       </c>
       <c r="P6" t="n">
-        <v>593616.333398698</v>
+        <v>593928.9747276192</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26804,16 +26804,16 @@
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26822,10 +26822,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>66.54216182877258</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>66.54216182877326</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>83.32522828944181</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27596,7 +27596,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>10.87587651701182</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>277.2566436803258</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>134.5760089460827</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>83.32522828944178</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27833,7 +27833,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>190.0418235903385</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>108.8774149194505</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -27912,7 +27912,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>218.0651767076268</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>214.5414662356956</v>
+        <v>69.12041821276446</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28146,7 +28146,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-2.22637182114542e-12</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>-5.3663749167642e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -31849,7 +31849,7 @@
         <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071787</v>
@@ -31858,10 +31858,10 @@
         <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>171.7382405950807</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>353.2560498238267</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>173.8200325543357</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017567</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>163.4402738502018</v>
+        <v>163.4402738502014</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>400.5469039565762</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35497,7 +35497,7 @@
         <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238455</v>
@@ -35506,10 +35506,10 @@
         <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>37.76383318075048</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>213.2742757378053</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>35.97859357997668</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>29.46586643587157</v>
+        <v>29.46586643587111</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>257.9506595121318</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
